--- a/INVENTARIOS TIENDA/EmpArmanUnder.xlsx
+++ b/INVENTARIOS TIENDA/EmpArmanUnder.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDALLA\Desktop\INVENTARIOS\INVENTARIOS TIENDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b11507c57360364/Escritorio/INVENTARIOS/INVENTARIOS TIENDA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59356B81-317C-4377-A80E-5453A8404515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C3FEEF-702C-4118-B7FF-A7F685949FC5}">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
